--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0895943-055A-6A40-A3A2-3ABF34745A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5BEE2-EF44-8D45-B191-EAB059577119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -34,18 +34,12 @@
     <t>Résultat observé</t>
   </si>
   <si>
-    <t>fonction fetchCanap</t>
-  </si>
-  <si>
     <t>on récupère tous les articles stockés dans l'API</t>
   </si>
   <si>
     <t>en faisant un console.log on voit que l'on a bien récupérer les données de l'API si erreur cela peut venir d'une erreur dans notre fetch ou d'un probleme de connexion au server</t>
   </si>
   <si>
-    <t>fonction canapDisplay</t>
-  </si>
-  <si>
     <t>récuperation des donnees de l'API mis dans un tableau</t>
   </si>
   <si>
@@ -178,54 +172,12 @@
     <t>en oubliant un champs de saisie on voit bien l'alert s'afficher</t>
   </si>
   <si>
-    <t>fonction checkFirstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si le prenom est valide </t>
-  </si>
-  <si>
-    <t>si l'on remplie mal le prenom en mettant par exemple des chiffres alors une alert s'affiche sinon on peut continuer</t>
-  </si>
-  <si>
-    <t>en mettant expres des chiffres dans le prenom l'alerte s'affiche bien</t>
-  </si>
-  <si>
-    <t>en mettant expres des chiffres dans le nom l'alerte s'affiche bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si le nom est valide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">si l'on remplie mal le nom en mettant par exemple des chiffres alors une alerte s'affiche </t>
-  </si>
-  <si>
-    <t>fonction checkLastName</t>
-  </si>
-  <si>
-    <t>fonction checkAdress</t>
-  </si>
-  <si>
-    <t>fonction checkCity</t>
-  </si>
-  <si>
     <t>fonction checkEmail</t>
   </si>
   <si>
-    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si l'adresse est valide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si la ville est valide </t>
-  </si>
-  <si>
     <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si le mail est valide </t>
   </si>
   <si>
-    <t>si l'on ne remplie pas correctement l'adresse par exemple en mettant un @ dedans une alerte s'affiche</t>
-  </si>
-  <si>
-    <t>si l'on ne remplie pas correctement la ville par exemple en mettant un @ dedans une alerte s'affiche</t>
-  </si>
-  <si>
     <t xml:space="preserve">en mettant expres un @ un ! Ou un% alors l'alerte s'affiche bien </t>
   </si>
   <si>
@@ -245,13 +197,62 @@
   </si>
   <si>
     <t>on voit que c'est le cas le numero de commande s'affiche bien</t>
+  </si>
+  <si>
+    <t>fonction checkName</t>
+  </si>
+  <si>
+    <t>fonction checkAdressCity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si le prenom et le nom est valide </t>
+  </si>
+  <si>
+    <t>si l'on remplie mal le prenom ou le nom en mettant par exemple des chiffres alors une alert s'affiche sinon on peut continuer</t>
+  </si>
+  <si>
+    <t>en mettant expres des chiffres dans le prenom ou le nom l'alerte s'affiche bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction qui permet a l'aide d'un regex de verifier si l'adresse et la ville sont valide </t>
+  </si>
+  <si>
+    <t>si l'on ne remplie pas correctement l'adresse ou la ville par exemple en mettant un @ dedans une alerte s'affiche</t>
+  </si>
+  <si>
+    <t>Une page “panier”. Celle-ci contient plusieurs parties :
+ Un résumé des produits dans le panier, le prix total et la possibilité de
+modifier la quantité d’un produit sélectionné ou bien de supprimer celui-ci.
+ Un formulaire permettant de passer une commande. Les données du
+formulaire doivent être correctes et bien formatées avant d'être renvoyées au
+back-end. Par exemple, pas de chiffre dans un champ prénom.</t>
+  </si>
+  <si>
+    <t>Une page “produit” qui affiche (de manière dynamique) les détails
+ du produit sur lequel l'utilisateur a cliqué depuis la page d’accueil. 
+Depuis cette page, l’utilisateur peut sélectionner une quantité, une couleur, et ajouter le produit à son panier.</t>
+  </si>
+  <si>
+    <t>Une page “confirmation” :
+○ Un message de confirmation de commande, remerciant l'utilisateur pour sa commande,
+ et indiquant l'identifiant de commande envoyé par l’API.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fonction fetchCanap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fonction canapDisplay</t>
+  </si>
+  <si>
+    <t>Une page d’accueil montrant (de manière dynamique) tous les articles
+ disponibles à la vente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -272,8 +273,13 @@
       <sz val="14"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +292,14 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -302,10 +314,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -315,10 +325,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -330,10 +338,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -345,10 +351,8 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -360,7 +364,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -371,7 +377,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -384,7 +392,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -397,9 +407,26 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,9 +434,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -426,9 +451,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -441,9 +464,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -456,36 +477,43 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,55 +521,107 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -549,44 +629,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,367 +931,343 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="58.5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="132" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
     <col min="4" max="4" width="57.83203125" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35"/>
+      <c r="B2" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>8</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="B14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="B15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="B17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="B18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="C21" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="D21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5BEE2-EF44-8D45-B191-EAB059577119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7D05D-0165-974C-88A7-5A624D93775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -635,12 +635,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -711,6 +705,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -947,34 +962,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -991,42 +1006,42 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="39" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1034,42 +1049,42 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="35" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1077,16 +1092,16 @@
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="35" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1094,16 +1109,16 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="35" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1111,16 +1126,16 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1128,16 +1143,16 @@
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="35" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1145,16 +1160,16 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1162,16 +1177,16 @@
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="35" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1179,16 +1194,16 @@
       <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="37" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1196,16 +1211,16 @@
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="35" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1213,16 +1228,16 @@
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="35" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1230,22 +1245,22 @@
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="6"/>
@@ -1256,16 +1271,16 @@
       <c r="A21" s="8">
         <v>16</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="35" t="s">
         <v>58</v>
       </c>
     </row>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7D05D-0165-974C-88A7-5A624D93775C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76565EE1-9C8D-D940-9ABE-CD777A12D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t xml:space="preserve">On doit voir s'afficher sur notre navigateur tous nos articles avec leur photos et description </t>
   </si>
   <si>
-    <t>les articles s'affiche bien correctement sinon c'est que le probleme vient de la fonction juste audessus</t>
-  </si>
-  <si>
     <t>fonction fetchProduct</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   <si>
     <t>Une page d’accueil montrant (de manière dynamique) tous les articles
  disponibles à la vente.</t>
+  </si>
+  <si>
+    <t>les articles s'affiche bien correctement sinon c'est que le probleme vient de la fonction juste audessus ou une erreur de syntaxe</t>
   </si>
 </sst>
 </file>
@@ -948,8 +948,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -979,7 +979,7 @@
     <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="33"/>
       <c r="B2" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -1002,12 +1002,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>7</v>
@@ -1016,13 +1016,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1033,16 +1033,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="D6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="E6" s="39" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1050,22 +1050,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="17"/>
@@ -1076,33 +1076,33 @@
         <v>5</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="E9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="D10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.2">
@@ -1110,16 +1110,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1127,16 +1127,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1144,16 +1144,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="D13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="E13" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1161,16 +1161,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="D14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="E14" s="35" t="s">
         <v>40</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1178,16 +1178,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="E15" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1195,16 +1195,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="D16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="E16" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1212,16 +1212,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="E17" s="35" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1229,16 +1229,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="E18" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1246,22 +1246,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1272,16 +1272,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>55</v>
-      </c>
       <c r="D21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>57</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76565EE1-9C8D-D940-9ABE-CD777A12D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A964B-CB4A-8045-BF0F-2C4B702FE339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -73,13 +73,7 @@
     <t>l'article s'affiche bien dans le navigateur si ce n'est pas le cas l'erreur peut venir d'une mauvaise syntaxe ou d'une erreur dans la fonction fetchProduct</t>
   </si>
   <si>
-    <t>fonction addBasket</t>
-  </si>
-  <si>
     <t>dans cette fonction nous allons rajouter le produit dans le localStorage pour pouvoir l'afficher dans notre panier</t>
-  </si>
-  <si>
-    <t>on doit avoir les donnees qui s'affiche dans le localStorage</t>
   </si>
   <si>
     <t xml:space="preserve">un tableau de produit s'affiche bien dans le localStorage si erreur verifier la syntaxe et les differentes fonctions mis en place dans addBasket </t>
@@ -246,6 +240,18 @@
   </si>
   <si>
     <t>les articles s'affiche bien correctement sinon c'est que le probleme vient de la fonction juste audessus ou une erreur de syntaxe</t>
+  </si>
+  <si>
+    <t>foncton fetchCanap</t>
+  </si>
+  <si>
+    <t>fonction renderBasket</t>
+  </si>
+  <si>
+    <t>on doit avoir les donnees choisies tel que le choix de la couleur, le choix de la quantité, et l'id qui s'affiche dans le localStorage, le prix reste caché car c'est une donnée sensible</t>
+  </si>
+  <si>
+    <t>récuperation des donnees de l'API en attendant d'être appelé pour le rendu du panier</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -543,63 +549,87 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -623,12 +653,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -653,55 +677,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,6 +742,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,10 +976,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -962,37 +992,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1006,42 +1036,42 @@
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1049,239 +1079,254 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="34" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="C12" s="29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="34" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="C13" s="29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="D13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="34" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="C14" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="E14" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="34" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="C15" s="29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>10</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="34" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="C16" s="29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="D16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="E16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="34" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="D17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="E17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="36" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="C20" s="29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>13</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>14</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="35" t="s">
+      <c r="D20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="34" t="s">
+      <c r="C22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>16</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A964B-CB4A-8045-BF0F-2C4B702FE339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09650E-BE8D-954D-BB66-4CE332E8523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,15 +82,6 @@
     <t>fonction createBasket</t>
   </si>
   <si>
-    <t>dans cette fonction on insere notre tableau du localStorage dans le DOM</t>
-  </si>
-  <si>
-    <t>on doit avoir les différents produits de notre tableau dans le localStorage s'afficher sur notre navigateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l'article ou les articles s'affichent bien dans notre navigateur, si il y a une erreur il faut retourner voir sur la page product.js si le localStorage a bien ete enregistrer </t>
-  </si>
-  <si>
     <t>fonction modifQuantity</t>
   </si>
   <si>
@@ -252,6 +243,15 @@
   </si>
   <si>
     <t>récuperation des donnees de l'API en attendant d'être appelé pour le rendu du panier</t>
+  </si>
+  <si>
+    <t>dans cette fonction on recupere les infos dans l'API puis on fais le rendu du panier dans le DOM et enfin om met en place le formulaire</t>
+  </si>
+  <si>
+    <t>on doit avoir les différents produits de notre tableau dans le localStorage et de notre API s'afficher sur notre navigateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l'article ou les articles s'affichent bien dans notre navigateur, si il y a une erreur il faut retourner voir sur la page product.js si le localStorage a bien ete enregistrer et si l'appel a l'API fonctionne bien </t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1009,7 @@
     <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>4</v>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -1046,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1095,7 +1095,7 @@
     <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="11"/>
@@ -1104,13 +1104,13 @@
     <row r="9" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -1121,19 +1121,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="108" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1141,13 +1141,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.2">
@@ -1155,16 +1155,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1172,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1189,16 +1189,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.2">
@@ -1206,16 +1206,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1223,16 +1223,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1240,16 +1240,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1257,16 +1257,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1274,16 +1274,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1291,22 +1291,22 @@
         <v>15</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1317,16 +1317,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="E22" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julescynamon/Desktop/P5_OPC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09650E-BE8D-954D-BB66-4CE332E8523C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCE759-1E5A-4E4E-A12D-E1A3D471C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>fonction displayOrderId</t>
   </si>
   <si>
-    <t>fonction qui va permettre de recuperer l'id de commande dans le localStorage et l'afficher sur la page confirmation</t>
-  </si>
-  <si>
     <t>si l'on ne remplit pas correctement l'email comme par exemple en oubliant le .com alors une alerte s'affiche</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">l'article ou les articles s'affichent bien dans notre navigateur, si il y a une erreur il faut retourner voir sur la page product.js si le localStorage a bien ete enregistrer et si l'appel a l'API fonctionne bien </t>
+  </si>
+  <si>
+    <t>fonction qui va permettre de recuperer l'id de commande grace a urlSearchParams et l'afficher sur la page confirmation</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1009,7 +1009,7 @@
     <row r="2" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>4</v>
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>7</v>
@@ -1046,13 +1046,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1095,7 +1095,7 @@
     <row r="8" spans="1:5" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="11"/>
@@ -1104,13 +1104,13 @@
     <row r="9" spans="1:5" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -1121,19 +1121,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="108" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1141,13 +1141,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36" x14ac:dyDescent="0.2">
@@ -1257,16 +1257,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" x14ac:dyDescent="0.2">
@@ -1274,13 +1274,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>46</v>
@@ -1297,7 +1297,7 @@
         <v>45</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>47</v>
@@ -1306,7 +1306,7 @@
     <row r="21" spans="1:5" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1320,13 +1320,13 @@
         <v>48</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
